--- a/data/negative_sample_results_perplexity.xlsx
+++ b/data/negative_sample_results_perplexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoyixiong/Desktop/to_repo/ARAG_Eval/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1DBC64-2D1D-9B4B-B4BD-A51E7DA70363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70C06B1-9163-6B44-B6C8-9FE7FDE47391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>question</t>
   </si>
@@ -326,6 +326,66 @@
   <si>
     <t>hallucination</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_en</t>
+  </si>
+  <si>
+    <t>Why did the research and development expenses of large and medium-sized key enterprises in Beijing decline in the first quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did the comprehensive energy consumption of industrial enterprises above designated size in Beijing increase in April 2023?</t>
+  </si>
+  <si>
+    <t>Why did the total profit of small, medium and micro enterprises above designated size in Beijing decline in the first quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did the total profit of industrial enterprises above designated size in Beijing increase in February 2023?</t>
+  </si>
+  <si>
+    <t>Why did the operating income of enterprises above the designated size in accommodation and catering industry in Beijing decline in the first quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did the contract value of the construction industry in Beijing increase in the first quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did Beijing's regional GDP decline in the first quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did the electricity consumption of all industries in Beijing increase in March 2023?</t>
+  </si>
+  <si>
+    <t>Why did the per capita consumption expenditure of urban residents in Beijing decline in the first quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did the freight volume in Beijing increase in February 2023?</t>
+  </si>
+  <si>
+    <t>Why did passenger traffic volume decline in Beijing in February 2023?</t>
+  </si>
+  <si>
+    <t>Why did the energy consumption of the tertiary industry above designated size (norm) in Beijing decline in the first quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did the average number of employees in small, medium and micro enterprises above designated size in Beijing increase in the third quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did the per capita consumption expenditure of rural residents in Beijing decline in the first quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did the per capita disposable income of urban residents in Beijing decline in the first quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did the per capita disposable income of rural residents in Beijing decline in the first quarter of 2023?</t>
+  </si>
+  <si>
+    <t>Why did the total operating income of key enterprises above designated size (quota) in Zhongguancun Demonstration Zone in Beijing increase in February 2023?</t>
+  </si>
+  <si>
+    <t>Why did the operating costs of industrial enterprises above designated size in Beijing rise in February 2023?</t>
+  </si>
+  <si>
+    <t>Why did the general public budget expenditure at the local level in Beijing decrease in February 2023?</t>
   </si>
 </sst>
 </file>
@@ -700,303 +760,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="37.1640625" customWidth="1"/>
-    <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="77" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="120">
+    <row r="2" spans="1:5" ht="120">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="342">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="342">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="314">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="314">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="165">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="165">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="135">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="135">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="409.6">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.6">
       <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="370">
+    <row r="10" spans="1:5" ht="370">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="165">
+    <row r="11" spans="1:5" ht="165">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="300">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="300">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="270">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="270">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="300">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="300">
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="150">
+    <row r="18" spans="1:5" ht="150">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="300">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="300">
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21">
-        <f>SUM(D2:D20)</f>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="E21">
+        <f>SUM(E2:E20)</f>
         <v>15</v>
       </c>
     </row>
